--- a/Project1-Apriori/Perf.xlsx
+++ b/Project1-Apriori/Perf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gevorgyan/Desktop/LINGI2364-MiningPattern/Project1-Apriori/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E25320-A1C5-6F4B-9A7B-6C2649BFD3AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51555EA2-7CAB-CF43-BE13-F68AE74E20A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{82C4813B-7716-4444-9EC4-67FF479BA7AB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{82C4813B-7716-4444-9EC4-67FF479BA7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
   <si>
     <t>Apriori</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>2.0890</t>
+  </si>
+  <si>
+    <t>380.483</t>
+  </si>
+  <si>
+    <t>704.2694</t>
   </si>
 </sst>
 </file>
@@ -930,7 +936,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1114,7 +1120,7 @@
         <v>49</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="K5" s="20" t="s">
         <v>10</v>
@@ -1454,7 +1460,7 @@
         <v>89</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>10</v>

--- a/Project1-Apriori/Perf.xlsx
+++ b/Project1-Apriori/Perf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gevorgyan/Desktop/LINGI2364-MiningPattern/Project1-Apriori/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51555EA2-7CAB-CF43-BE13-F68AE74E20A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B5F0DD-BEAA-7742-9814-6F8BB8235BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{82C4813B-7716-4444-9EC4-67FF479BA7AB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
   <si>
     <t>Apriori</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>704.2694</t>
+  </si>
+  <si>
+    <t>532.8917</t>
   </si>
 </sst>
 </file>
@@ -936,7 +939,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1487,7 +1490,7 @@
         <v>82</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>10</v>

--- a/Project1-Apriori/Perf.xlsx
+++ b/Project1-Apriori/Perf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gevorgyan/Desktop/LINGI2364-MiningPattern/Project1-Apriori/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B5F0DD-BEAA-7742-9814-6F8BB8235BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C77422-DB59-5044-B978-2CF995A964B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{82C4813B-7716-4444-9EC4-67FF479BA7AB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
   <si>
     <t>Apriori</t>
   </si>
@@ -320,7 +320,10 @@
     <t>704.2694</t>
   </si>
   <si>
-    <t>532.8917</t>
+    <t>AprioriNAIVE</t>
+  </si>
+  <si>
+    <t>431.66</t>
   </si>
 </sst>
 </file>
@@ -362,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -588,11 +591,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -622,6 +725,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B58ED5-1B1B-444C-B4EF-9AED33C6F073}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1321,10 +1437,10 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="30" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -1358,10 +1474,10 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="31" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1395,10 +1511,10 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="31" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1435,10 +1551,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="31" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1471,10 +1587,10 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="31" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1490,7 +1606,7 @@
         <v>82</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>10</v>
@@ -1507,10 +1623,10 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="31" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1543,10 +1659,10 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="31" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1579,10 +1695,10 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="32" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -1612,6 +1728,169 @@
       <c r="K18" s="9" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D19" s="5">
+        <f>C19 - 0.1</f>
+        <v>0.8</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" ref="E19" si="2">D19 - 0.1</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" ref="F19" si="3">E19 - 0.1</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" ref="G19" si="4">F19 - 0.1</f>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" ref="H19" si="5">G19 - 0.1</f>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" ref="I19" si="6">H19 - 0.1</f>
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" ref="J19" si="7">I19 - 0.1</f>
+        <v>0.20000000000000015</v>
+      </c>
+      <c r="K19" s="6">
+        <f>J19 - 0.1</f>
+        <v>0.10000000000000014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project1-Apriori/Perf.xlsx
+++ b/Project1-Apriori/Perf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gevorgyan/Desktop/LINGI2364-MiningPattern/Project1-Apriori/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C77422-DB59-5044-B978-2CF995A964B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594BB901-6E2A-864E-82DF-953030CA5D36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{82C4813B-7716-4444-9EC4-67FF479BA7AB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="99">
   <si>
     <t>Apriori</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>431.66</t>
+  </si>
+  <si>
+    <t>* m + p test 1-&gt; timeout</t>
+  </si>
+  <si>
+    <t>* memory pref</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B58ED5-1B1B-444C-B4EF-9AED33C6F073}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1658,7 +1664,7 @@
       </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
         <v>7</v>
       </c>
@@ -1694,7 +1700,7 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>8</v>
       </c>
@@ -1729,7 +1735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>95</v>
       </c>
@@ -1772,7 +1778,7 @@
         <v>0.10000000000000014</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>2</v>
       </c>
@@ -1787,7 +1793,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
         <v>3</v>
       </c>
@@ -1802,7 +1808,7 @@
       <c r="J21" s="15"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
         <v>4</v>
       </c>
@@ -1817,7 +1823,7 @@
       <c r="J22" s="15"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
         <v>5</v>
       </c>
@@ -1832,7 +1838,7 @@
       <c r="J23" s="15"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
         <v>6</v>
       </c>
@@ -1847,7 +1853,7 @@
       <c r="J24" s="37"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="34" t="s">
         <v>9</v>
       </c>
@@ -1862,7 +1868,7 @@
       <c r="J25" s="15"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="34" t="s">
         <v>7</v>
       </c>
@@ -1877,7 +1883,7 @@
       <c r="J26" s="15"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>8</v>
       </c>
@@ -1891,6 +1897,14 @@
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
       <c r="K27" s="17"/>
+      <c r="O27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O28" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
